--- a/data/books.xlsx
+++ b/data/books.xlsx
@@ -397,9 +397,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3001"/>
+  <dimension ref="A1:I3004"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
@@ -424,6 +424,12 @@
       <c r="G1" t="str">
         <v>PublishYear</v>
       </c>
+      <c r="H1" t="str">
+        <v>bookId</v>
+      </c>
+      <c r="I1" t="str">
+        <v>PageCount</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -69422,9 +69428,75 @@
         <v>2014</v>
       </c>
     </row>
+    <row r="3002">
+      <c r="A3002">
+        <v>3001</v>
+      </c>
+      <c r="B3002" t="str">
+        <v>new test</v>
+      </c>
+      <c r="C3002" t="str">
+        <v>test</v>
+      </c>
+      <c r="F3002" t="str">
+        <v>500</v>
+      </c>
+      <c r="G3002" t="str">
+        <v>2000</v>
+      </c>
+      <c r="H3002" t="str">
+        <v>3001</v>
+      </c>
+      <c r="I3002" t="str">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3003">
+      <c r="A3003">
+        <v>3002</v>
+      </c>
+      <c r="B3003" t="str">
+        <v>new test</v>
+      </c>
+      <c r="C3003" t="str">
+        <v>test</v>
+      </c>
+      <c r="F3003" t="str">
+        <v>500</v>
+      </c>
+      <c r="G3003" t="str">
+        <v>2000</v>
+      </c>
+      <c r="H3003" t="str">
+        <v>100</v>
+      </c>
+      <c r="I3003" t="str">
+        <v>3002</v>
+      </c>
+    </row>
+    <row r="3004">
+      <c r="A3004">
+        <v>3003</v>
+      </c>
+      <c r="B3004" t="str">
+        <v>test</v>
+      </c>
+      <c r="C3004" t="str">
+        <v>test</v>
+      </c>
+      <c r="F3004" t="str">
+        <v>5</v>
+      </c>
+      <c r="G3004" t="str">
+        <v>2000</v>
+      </c>
+      <c r="I3004" t="str">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G3001"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I3004"/>
   </ignoredErrors>
 </worksheet>
 </file>